--- a/artfynd/A 59293-2023 artfynd.xlsx
+++ b/artfynd/A 59293-2023 artfynd.xlsx
@@ -1061,10 +1061,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067473</v>
+        <v>131067826</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1072,42 +1072,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>465809</v>
+        <v>465891</v>
       </c>
       <c r="R5" t="n">
-        <v>7046259</v>
+        <v>7046290</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,54 +1132,45 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>15:46</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>15:46</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Färska ringhack</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067826</v>
+        <v>131067473</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1192,37 +1178,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>465891</v>
+        <v>465809</v>
       </c>
       <c r="R6" t="n">
-        <v>7046290</v>
+        <v>7046259</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1252,35 +1243,44 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Färska ringhack</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 59293-2023 artfynd.xlsx
+++ b/artfynd/A 59293-2023 artfynd.xlsx
@@ -1061,10 +1061,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067826</v>
+        <v>131067473</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1072,37 +1072,42 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>465891</v>
+        <v>465809</v>
       </c>
       <c r="R5" t="n">
-        <v>7046290</v>
+        <v>7046259</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,45 +1137,54 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Färska ringhack</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067473</v>
+        <v>131067826</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1178,42 +1192,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>465809</v>
+        <v>465891</v>
       </c>
       <c r="R6" t="n">
-        <v>7046259</v>
+        <v>7046290</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,44 +1252,35 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>15:46</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>15:46</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Färska ringhack</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 59293-2023 artfynd.xlsx
+++ b/artfynd/A 59293-2023 artfynd.xlsx
@@ -822,7 +822,7 @@
         <v>131067454</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067473</v>
+        <v>131067826</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1072,42 +1072,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>465809</v>
+        <v>465891</v>
       </c>
       <c r="R5" t="n">
-        <v>7046259</v>
+        <v>7046290</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,54 +1132,45 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>15:46</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>15:46</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Färska ringhack</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067826</v>
+        <v>131067473</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1192,37 +1178,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>465891</v>
+        <v>465809</v>
       </c>
       <c r="R6" t="n">
-        <v>7046290</v>
+        <v>7046259</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1252,35 +1243,44 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Färska ringhack</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
         <v>131067825</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
